--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.015023935801</v>
+        <v>153.7564646666667</v>
       </c>
       <c r="H2">
-        <v>107.015023935801</v>
+        <v>461.269394</v>
       </c>
       <c r="I2">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="J2">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>10559.67002998003</v>
+        <v>19678.37829060766</v>
       </c>
       <c r="R2">
-        <v>10559.67002998003</v>
+        <v>177105.4046154689</v>
       </c>
       <c r="S2">
-        <v>0.2252565464363205</v>
+        <v>0.2854186658941462</v>
       </c>
       <c r="T2">
-        <v>0.2252565464363205</v>
+        <v>0.2854186658941462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.015023935801</v>
+        <v>153.7564646666667</v>
       </c>
       <c r="H3">
-        <v>107.015023935801</v>
+        <v>461.269394</v>
       </c>
       <c r="I3">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="J3">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>6030.922156832079</v>
+        <v>9295.107108834145</v>
       </c>
       <c r="R3">
-        <v>6030.922156832079</v>
+        <v>83655.9639795073</v>
       </c>
       <c r="S3">
-        <v>0.1286502980696688</v>
+        <v>0.134817871227371</v>
       </c>
       <c r="T3">
-        <v>0.1286502980696688</v>
+        <v>0.134817871227371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.015023935801</v>
+        <v>153.7564646666667</v>
       </c>
       <c r="H4">
-        <v>107.015023935801</v>
+        <v>461.269394</v>
       </c>
       <c r="I4">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="J4">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>6326.454055842548</v>
+        <v>9130.030478212861</v>
       </c>
       <c r="R4">
-        <v>6326.454055842548</v>
+        <v>82170.27430391574</v>
       </c>
       <c r="S4">
-        <v>0.1349545192000512</v>
+        <v>0.1324235706917056</v>
       </c>
       <c r="T4">
-        <v>0.1349545192000512</v>
+        <v>0.1324235706917056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>107.015023935801</v>
+        <v>153.7564646666667</v>
       </c>
       <c r="H5">
-        <v>107.015023935801</v>
+        <v>461.269394</v>
       </c>
       <c r="I5">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="J5">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>2956.471951432025</v>
+        <v>4344.820093535748</v>
       </c>
       <c r="R5">
-        <v>2956.471951432025</v>
+        <v>39103.38084182173</v>
       </c>
       <c r="S5">
-        <v>0.06306680601994971</v>
+        <v>0.06301803615793582</v>
       </c>
       <c r="T5">
-        <v>0.06306680601994971</v>
+        <v>0.06301803615793582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>107.015023935801</v>
+        <v>153.7564646666667</v>
       </c>
       <c r="H6">
-        <v>107.015023935801</v>
+        <v>461.269394</v>
       </c>
       <c r="I6">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="J6">
-        <v>0.5558913689481064</v>
+        <v>0.6211857402155671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>185.7885007592976</v>
+        <v>379.7248579726529</v>
       </c>
       <c r="R6">
-        <v>185.7885007592976</v>
+        <v>3417.523721753876</v>
       </c>
       <c r="S6">
-        <v>0.003963199222116246</v>
+        <v>0.005507596244408411</v>
       </c>
       <c r="T6">
-        <v>0.003963199222116246</v>
+        <v>0.005507596244408411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.3411794939964</v>
+        <v>32.07581166666666</v>
       </c>
       <c r="H7">
-        <v>31.3411794939964</v>
+        <v>96.22743499999999</v>
       </c>
       <c r="I7">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="J7">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>3092.579916680848</v>
+        <v>4105.192957729294</v>
       </c>
       <c r="R7">
-        <v>3092.579916680848</v>
+        <v>36946.73661956365</v>
       </c>
       <c r="S7">
-        <v>0.06597023104245324</v>
+        <v>0.05954244195988356</v>
       </c>
       <c r="T7">
-        <v>0.06597023104245324</v>
+        <v>0.05954244195988356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.3411794939964</v>
+        <v>32.07581166666666</v>
       </c>
       <c r="H8">
-        <v>31.3411794939964</v>
+        <v>96.22743499999999</v>
       </c>
       <c r="I8">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="J8">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>1766.258669857292</v>
+        <v>1939.093134658259</v>
       </c>
       <c r="R8">
-        <v>1766.258669857292</v>
+        <v>17451.83821192433</v>
       </c>
       <c r="S8">
-        <v>0.03767743944230188</v>
+        <v>0.02812494847722372</v>
       </c>
       <c r="T8">
-        <v>0.03767743944230188</v>
+        <v>0.02812494847722372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.3411794939964</v>
+        <v>32.07581166666666</v>
       </c>
       <c r="H9">
-        <v>31.3411794939964</v>
+        <v>96.22743499999999</v>
       </c>
       <c r="I9">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="J9">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>1852.810239463492</v>
+        <v>1904.655773433445</v>
       </c>
       <c r="R9">
-        <v>1852.810239463492</v>
+        <v>17141.90196090101</v>
       </c>
       <c r="S9">
-        <v>0.03952373838940756</v>
+        <v>0.02762546292244138</v>
       </c>
       <c r="T9">
-        <v>0.03952373838940756</v>
+        <v>0.02762546292244137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.3411794939964</v>
+        <v>32.07581166666666</v>
       </c>
       <c r="H10">
-        <v>31.3411794939964</v>
+        <v>96.22743499999999</v>
       </c>
       <c r="I10">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="J10">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>865.8533604999595</v>
+        <v>906.3920099095171</v>
       </c>
       <c r="R10">
-        <v>865.8533604999595</v>
+        <v>8157.528089185655</v>
       </c>
       <c r="S10">
-        <v>0.01847019245419283</v>
+        <v>0.01314646941048817</v>
       </c>
       <c r="T10">
-        <v>0.01847019245419283</v>
+        <v>0.01314646941048817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.3411794939964</v>
+        <v>32.07581166666666</v>
       </c>
       <c r="H11">
-        <v>31.3411794939964</v>
+        <v>96.22743499999999</v>
       </c>
       <c r="I11">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="J11">
-        <v>0.1628022919830184</v>
+        <v>0.1295882866217661</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>54.4113390444204</v>
+        <v>79.2160710503322</v>
       </c>
       <c r="R11">
-        <v>54.4113390444204</v>
+        <v>712.9446394529898</v>
       </c>
       <c r="S11">
-        <v>0.001160690654662913</v>
+        <v>0.001148963851729244</v>
       </c>
       <c r="T11">
-        <v>0.001160690654662913</v>
+        <v>0.001148963851729244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.38312111029455</v>
+        <v>1.525532333333333</v>
       </c>
       <c r="H12">
-        <v>1.38312111029455</v>
+        <v>4.576597</v>
       </c>
       <c r="I12">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="J12">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>136.478991444901</v>
+        <v>195.243838462129</v>
       </c>
       <c r="R12">
-        <v>136.478991444901</v>
+        <v>1757.194546159161</v>
       </c>
       <c r="S12">
-        <v>0.00291133967128788</v>
+        <v>0.002831851033400997</v>
       </c>
       <c r="T12">
-        <v>0.00291133967128788</v>
+        <v>0.002831851033400997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.38312111029455</v>
+        <v>1.525532333333333</v>
       </c>
       <c r="H13">
-        <v>1.38312111029455</v>
+        <v>4.576597</v>
       </c>
       <c r="I13">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="J13">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>77.94695962187238</v>
+        <v>92.22367636420512</v>
       </c>
       <c r="R13">
-        <v>77.94695962187238</v>
+        <v>830.0130872778461</v>
       </c>
       <c r="S13">
-        <v>0.001662747309317912</v>
+        <v>0.001337628451033914</v>
       </c>
       <c r="T13">
-        <v>0.001662747309317912</v>
+        <v>0.001337628451033914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.38312111029455</v>
+        <v>1.525532333333333</v>
       </c>
       <c r="H14">
-        <v>1.38312111029455</v>
+        <v>4.576597</v>
       </c>
       <c r="I14">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="J14">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>81.76657665557067</v>
+        <v>90.58582823836247</v>
       </c>
       <c r="R14">
-        <v>81.76657665557067</v>
+        <v>815.2724541452621</v>
       </c>
       <c r="S14">
-        <v>0.001744226535399549</v>
+        <v>0.001313872813241426</v>
       </c>
       <c r="T14">
-        <v>0.001744226535399549</v>
+        <v>0.001313872813241426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.38312111029455</v>
+        <v>1.525532333333333</v>
       </c>
       <c r="H15">
-        <v>1.38312111029455</v>
+        <v>4.576597</v>
       </c>
       <c r="I15">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="J15">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>38.21107184419704</v>
+        <v>43.10819417950679</v>
       </c>
       <c r="R15">
-        <v>38.21107184419704</v>
+        <v>387.9737476155611</v>
       </c>
       <c r="S15">
-        <v>0.0008151101364736703</v>
+        <v>0.0006252488436861272</v>
       </c>
       <c r="T15">
-        <v>0.0008151101364736703</v>
+        <v>0.0006252488436861272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.38312111029455</v>
+        <v>1.525532333333333</v>
       </c>
       <c r="H16">
-        <v>1.38312111029455</v>
+        <v>4.576597</v>
       </c>
       <c r="I16">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="J16">
-        <v>0.007184646222047377</v>
+        <v>0.006163246103237761</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>2.401232911037952</v>
+        <v>3.767532961059778</v>
       </c>
       <c r="R16">
-        <v>2.401232911037952</v>
+        <v>33.907796649538</v>
       </c>
       <c r="S16">
-        <v>5.122256956836599E-05</v>
+        <v>5.46449618752958E-05</v>
       </c>
       <c r="T16">
-        <v>5.122256956836599E-05</v>
+        <v>5.46449618752958E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.27077728971336</v>
+        <v>1.273456</v>
       </c>
       <c r="H17">
-        <v>1.27077728971336</v>
+        <v>3.820368</v>
       </c>
       <c r="I17">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="J17">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N17">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q17">
-        <v>125.3935042710971</v>
+        <v>162.982083119376</v>
       </c>
       <c r="R17">
-        <v>125.3935042710971</v>
+        <v>1466.838748074384</v>
       </c>
       <c r="S17">
-        <v>0.002674866509792706</v>
+        <v>0.002363920849655782</v>
       </c>
       <c r="T17">
-        <v>0.002674866509792706</v>
+        <v>0.002363920849655782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.27077728971336</v>
+        <v>1.273456</v>
       </c>
       <c r="H18">
-        <v>1.27077728971336</v>
+        <v>3.820368</v>
       </c>
       <c r="I18">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="J18">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N18">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q18">
-        <v>71.61572862450583</v>
+        <v>76.98479503966935</v>
       </c>
       <c r="R18">
-        <v>71.61572862450583</v>
+        <v>692.8631553570241</v>
       </c>
       <c r="S18">
-        <v>0.001527690889457408</v>
+        <v>0.001116601031338248</v>
       </c>
       <c r="T18">
-        <v>0.001527690889457408</v>
+        <v>0.001116601031338248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.27077728971336</v>
+        <v>1.273456</v>
       </c>
       <c r="H19">
-        <v>1.27077728971336</v>
+        <v>3.820368</v>
       </c>
       <c r="I19">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="J19">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N19">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q19">
-        <v>75.12509779377</v>
+        <v>75.61758211512534</v>
       </c>
       <c r="R19">
-        <v>75.12509779377</v>
+        <v>680.5582390361282</v>
       </c>
       <c r="S19">
-        <v>0.001602551976687805</v>
+        <v>0.001096770734189076</v>
       </c>
       <c r="T19">
-        <v>0.001602551976687805</v>
+        <v>0.001096770734189076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.27077728971336</v>
+        <v>1.273456</v>
       </c>
       <c r="H20">
-        <v>1.27077728971336</v>
+        <v>3.820368</v>
       </c>
       <c r="I20">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="J20">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N20">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q20">
-        <v>35.10738282699648</v>
+        <v>35.98507047510934</v>
       </c>
       <c r="R20">
-        <v>35.10738282699648</v>
+        <v>323.8656342759841</v>
       </c>
       <c r="S20">
-        <v>0.0007489029285550478</v>
+        <v>0.0005219338024421819</v>
       </c>
       <c r="T20">
-        <v>0.0007489029285550478</v>
+        <v>0.0005219338024421819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.27077728971336</v>
+        <v>1.273456</v>
       </c>
       <c r="H21">
-        <v>1.27077728971336</v>
+        <v>3.820368</v>
       </c>
       <c r="I21">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="J21">
-        <v>0.006601074327943958</v>
+        <v>0.005144841940187051</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N21">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q21">
-        <v>2.206193100479463</v>
+        <v>3.144992308341334</v>
       </c>
       <c r="R21">
-        <v>2.206193100479463</v>
+        <v>28.304930775072</v>
       </c>
       <c r="S21">
-        <v>4.706202345099053E-05</v>
+        <v>4.561552256176371E-05</v>
       </c>
       <c r="T21">
-        <v>4.706202345099053E-05</v>
+        <v>4.561552256176371E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.03757810741532</v>
+        <v>4.114076666666667</v>
       </c>
       <c r="H22">
-        <v>4.03757810741532</v>
+        <v>12.34223</v>
       </c>
       <c r="I22">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="J22">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N22">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q22">
-        <v>398.4066065354931</v>
+        <v>526.53628020611</v>
       </c>
       <c r="R22">
-        <v>398.4066065354931</v>
+        <v>4738.82652185499</v>
       </c>
       <c r="S22">
-        <v>0.008498721646680932</v>
+        <v>0.007636974979438388</v>
       </c>
       <c r="T22">
-        <v>0.008498721646680932</v>
+        <v>0.007636974979438389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.03757810741532</v>
+        <v>4.114076666666667</v>
       </c>
       <c r="H23">
-        <v>4.03757810741532</v>
+        <v>12.34223</v>
       </c>
       <c r="I23">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="J23">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N23">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q23">
-        <v>227.5411280808487</v>
+        <v>248.7100841810156</v>
       </c>
       <c r="R23">
-        <v>227.5411280808487</v>
+        <v>2238.39075762914</v>
       </c>
       <c r="S23">
-        <v>0.004853857037028398</v>
+        <v>0.003607334881617128</v>
       </c>
       <c r="T23">
-        <v>0.004853857037028398</v>
+        <v>0.003607334881617129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.03757810741532</v>
+        <v>4.114076666666667</v>
       </c>
       <c r="H24">
-        <v>4.03757810741532</v>
+        <v>12.34223</v>
       </c>
       <c r="I24">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="J24">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N24">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q24">
-        <v>238.691273935167</v>
+        <v>244.2931127338422</v>
       </c>
       <c r="R24">
-        <v>238.691273935167</v>
+        <v>2198.63801460458</v>
       </c>
       <c r="S24">
-        <v>0.00509170948320088</v>
+        <v>0.003543270349513563</v>
       </c>
       <c r="T24">
-        <v>0.00509170948320088</v>
+        <v>0.003543270349513563</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.03757810741532</v>
+        <v>4.114076666666667</v>
       </c>
       <c r="H25">
-        <v>4.03757810741532</v>
+        <v>12.34223</v>
       </c>
       <c r="I25">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="J25">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N25">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q25">
-        <v>111.5449587101945</v>
+        <v>116.2547734589989</v>
       </c>
       <c r="R25">
-        <v>111.5449587101945</v>
+        <v>1046.29296113099</v>
       </c>
       <c r="S25">
-        <v>0.002379452397670033</v>
+        <v>0.001686179717376957</v>
       </c>
       <c r="T25">
-        <v>0.002379452397670033</v>
+        <v>0.001686179717376957</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.03757810741532</v>
+        <v>4.114076666666667</v>
       </c>
       <c r="H26">
-        <v>4.03757810741532</v>
+        <v>12.34223</v>
       </c>
       <c r="I26">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="J26">
-        <v>0.02097326841427863</v>
+        <v>0.01662112721586895</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N26">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q26">
-        <v>7.009628701529476</v>
+        <v>10.16033492526889</v>
       </c>
       <c r="R26">
-        <v>7.009628701529476</v>
+        <v>91.44301432742</v>
       </c>
       <c r="S26">
-        <v>0.0001495278496983893</v>
+        <v>0.0001473672879229113</v>
       </c>
       <c r="T26">
-        <v>0.0001495278496983893</v>
+        <v>0.0001473672879229113</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>47.4629973526638</v>
+        <v>54.77557666666667</v>
       </c>
       <c r="H27">
-        <v>47.4629973526638</v>
+        <v>164.32673</v>
       </c>
       <c r="I27">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="J27">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N27">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q27">
-        <v>4683.394651003533</v>
+        <v>7010.401293172609</v>
       </c>
       <c r="R27">
-        <v>4683.394651003533</v>
+        <v>63093.61163855348</v>
       </c>
       <c r="S27">
-        <v>0.09990513924092639</v>
+        <v>0.1016800955307856</v>
       </c>
       <c r="T27">
-        <v>0.09990513924092639</v>
+        <v>0.1016800955307856</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>47.4629973526638</v>
+        <v>54.77557666666667</v>
       </c>
       <c r="H28">
-        <v>47.4629973526638</v>
+        <v>164.32673</v>
       </c>
       <c r="I28">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="J28">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N28">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q28">
-        <v>2674.817346539706</v>
+        <v>3311.372000966682</v>
       </c>
       <c r="R28">
-        <v>2674.817346539706</v>
+        <v>29802.34800870014</v>
       </c>
       <c r="S28">
-        <v>0.05705861225955717</v>
+        <v>0.04802872293832475</v>
       </c>
       <c r="T28">
-        <v>0.05705861225955717</v>
+        <v>0.04802872293832475</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>47.4629973526638</v>
+        <v>54.77557666666667</v>
       </c>
       <c r="H29">
-        <v>47.4629973526638</v>
+        <v>164.32673</v>
       </c>
       <c r="I29">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="J29">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N29">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q29">
-        <v>2805.890809166565</v>
+        <v>3252.563627243509</v>
       </c>
       <c r="R29">
-        <v>2805.890809166565</v>
+        <v>29273.07264519158</v>
       </c>
       <c r="S29">
-        <v>0.05985464238520988</v>
+        <v>0.04717575592429576</v>
       </c>
       <c r="T29">
-        <v>0.05985464238520988</v>
+        <v>0.04717575592429576</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>47.4629973526638</v>
+        <v>54.77557666666667</v>
       </c>
       <c r="H30">
-        <v>47.4629973526638</v>
+        <v>164.32673</v>
       </c>
       <c r="I30">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="J30">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N30">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q30">
-        <v>1311.245984379013</v>
+        <v>1547.837527692166</v>
       </c>
       <c r="R30">
-        <v>1311.245984379013</v>
+        <v>13930.53774922949</v>
       </c>
       <c r="S30">
-        <v>0.02797120943468235</v>
+        <v>0.02245010821779204</v>
       </c>
       <c r="T30">
-        <v>0.02797120943468235</v>
+        <v>0.02245010821779204</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>47.4629973526638</v>
+        <v>54.77557666666667</v>
       </c>
       <c r="H31">
-        <v>47.4629973526638</v>
+        <v>164.32673</v>
       </c>
       <c r="I31">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="J31">
-        <v>0.2465473501046052</v>
+        <v>0.2212967579033731</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N31">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q31">
-        <v>82.40038450100185</v>
+        <v>135.2765759489355</v>
       </c>
       <c r="R31">
-        <v>82.40038450100185</v>
+        <v>1217.48918354042</v>
       </c>
       <c r="S31">
-        <v>0.001757746784229364</v>
+        <v>0.001962075292174956</v>
       </c>
       <c r="T31">
-        <v>0.001757746784229364</v>
+        <v>0.001962075292174956</v>
       </c>
     </row>
   </sheetData>
